--- a/_Game_Designer_Info/neglect_game_designed.xlsx
+++ b/_Game_Designer_Info/neglect_game_designed.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f94f392a36fa7e26/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FC7C0A83-D0C8-4758-9085-4FD55BB02666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8603E125-7D5C-498B-B392-A6CDA151CFA4}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="8_{FC7C0A83-D0C8-4758-9085-4FD55BB02666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C8CF834-16A7-4726-B84F-51184EBE6E47}"/>
   <bookViews>
-    <workbookView xWindow="2916" yWindow="1944" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{BDFBB7C7-D7C4-42B1-A945-A70203FF3468}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15324" windowHeight="12336" tabRatio="842" xr2:uid="{BDFBB7C7-D7C4-42B1-A945-A70203FF3468}"/>
   </bookViews>
   <sheets>
     <sheet name="Hisrory" sheetId="2" r:id="rId1"/>
     <sheet name="기획안" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="UI" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="테이블" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="기본 능력치" sheetId="7" r:id="rId3"/>
+    <sheet name="특성 및 증강 리스트" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="UI" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="테이블" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="225">
   <si>
     <t>◆ 개요</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- +10Lv 마다 3가지 증강 중 1개 선택 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 고유 몬스터 처치 시, 특성 3개 중 1개 추가 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +377,581 @@
   </si>
   <si>
     <t>방어 특성으로 가면 대적자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ 서포트 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ 메인 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ 증강 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ 증강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mspd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aspd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 100, 제한 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 0, 제한 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 0, 제한 x, 방어 1당 반격 피해 증가
+반격 피해 증가량 최대 500% (방어50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 100%, 제한 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 100%, 최대 1000%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 100%, 최대 500%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 0, 추가 투사체 개념, 최대 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 100%, 최소 10%(최대 쿨감 90%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 0, 최대 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 30, 제한 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐욕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ 능력치 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ 캐릭터 초기 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 설정값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(추가 투사체 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해를 입을 시, (적의 공격력 - 방어력)의 수치만큼 피해를 입음.
+방어 1당 반격 데미지 x10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 회복 수치만큼 HP를 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 이동속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 공격 속도 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 공격 범위 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주를 제외한 모든 효과의 지속 시간 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 효과의 재사용 대기시간 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시, 부활 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 1당 추가 투사체 개수 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 습득 범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사념에서 저주가 뜰 확률 감소
+2. 선택지 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 획득량 1당 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득량 1당 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저주 1스택 당, 적군 강화 10% 및 스폰률 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯 1당 레벨업 시, 선택지 새로고침 1회 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불필요한 스탯 지우기 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ 능력치 단련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 6회 가능
+1회당 이동속도 5% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 10회 가능
+1회당 피해량 10% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 10회 가능
+1회당 체력 10 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 10회 가능
+1회당 회복 0.5 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 10회 가능
+1회당 방어 1 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 30회 가능
+1회당 속도 1% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단련 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠뇌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양손검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆ 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 특성은 메인과 서포트 각 3개씩 보유할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 각 특성은 동일한 특성을 중복하여 선택해 강화할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 최대 레벨 5에 도달한 메인 특성은, 유효한 서포트 특성이 있을 시, 강화가 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트래퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 메인 특성은 '무기'를 주로 하며, 각 특성을 달리 할 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사거리는 최소 1부터 최대 10까지 있으며, 공격 범위 또한 1~5가 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한손엔 검, 한손엔 방패인 무난한 선택지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치 시, 경험치 + 재화 수급 어떻게 조절할건지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜야됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 고추가 맵다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자의 낭만 크고 아름다운 그것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양손검 이걸 참아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸늘하다... 가슴에 비수가 날아와 꽂힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프니까 한대 더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….드립이 생각이 안나네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇고 긴거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇고 짧은거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나혼자 마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양궁의 나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 증강은 최대 3개 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- +15Lv 마다 3가지 증강 중 1개 선택 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 증강은 직접 전투보단, 전투를 쾌적하게 만들어 주는 것이 목적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ex) 1초간 유지되는 검기를 전방으로 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.02.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅁ 기획안 시트 내용 수정
+ - 증강 획득 레벨 10 -&gt; 15 변경 (40행)
+ㅁ 기본 능력치, 특성 및 증강 리스트 추가 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +959,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +1059,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -500,7 +1082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -523,13 +1105,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +1176,39 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204C43E9-7A79-4FDF-98EA-AB4E2E1D154C}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -956,6 +1582,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="2:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -966,7 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589F54FE-0A5B-429B-B534-1954DFA98398}">
   <dimension ref="B2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1852,7 @@
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D37" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.4">
@@ -1230,7 +1867,7 @@
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="D40" s="11" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.4">
@@ -1266,7 +1903,7 @@
         <v>39</v>
       </c>
       <c r="M46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N46" t="s">
         <v>57</v>
@@ -1295,7 +1932,7 @@
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D50" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M50" t="s">
         <v>53</v>
@@ -1303,7 +1940,7 @@
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D51" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M51" t="s">
         <v>55</v>
@@ -1311,7 +1948,7 @@
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D52" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M52" t="s">
         <v>54</v>
@@ -1319,7 +1956,7 @@
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D53" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M53" t="s">
         <v>56</v>
@@ -1327,65 +1964,65 @@
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D54" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D55" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D56" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C57" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D58" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D59" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D60" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D61" s="11"/>
       <c r="E61" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C62" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.4">
       <c r="D63" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1395,6 +2032,1525 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1977C64B-EDD1-47D6-9480-AAA909774717}">
+  <dimension ref="B2:H44"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="3.69921875" customWidth="1"/>
+    <col min="3" max="3" width="3.69921875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="22" customWidth="1"/>
+    <col min="7" max="7" width="33.296875" customWidth="1"/>
+    <col min="8" max="8" width="26.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C7" s="13">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C8" s="13">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C9" s="13">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C10" s="13">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="13">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C12" s="13">
+        <v>8</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="13">
+        <v>10</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="13">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C16" s="13">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="13">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C18" s="13">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C19" s="13">
+        <v>15</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="C20" s="13">
+        <v>16</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C21" s="13">
+        <v>17</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="23" spans="2:8" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B23" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="C24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C29" s="13">
+        <v>4</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C30" s="13">
+        <v>5</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C31" s="13">
+        <v>6</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="C32" s="13">
+        <v>7</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C33" s="13">
+        <v>8</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C34" s="13">
+        <v>9</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C35" s="13">
+        <v>10</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C36" s="13">
+        <v>11</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C37" s="13">
+        <v>12</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C38" s="13">
+        <v>13</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C39" s="13">
+        <v>14</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C40" s="13">
+        <v>15</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C41" s="13">
+        <v>16</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C42" s="13">
+        <v>17</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B44" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC212322-6D78-445E-A659-6FF5298A8357}">
+  <dimension ref="B2:J58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="3.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="6" width="7.296875" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" customWidth="1"/>
+    <col min="9" max="9" width="52.59765625" customWidth="1"/>
+    <col min="10" max="10" width="26.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C3" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C4" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C5" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C8" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C9" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B10" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="13">
+        <v>4</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="13">
+        <v>6</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="13">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13">
+        <v>2</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="13">
+        <v>6</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="13">
+        <v>7</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="13">
+        <v>7</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="13">
+        <v>8</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="13">
+        <v>8</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="13">
+        <v>9</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="13">
+        <v>10</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="13">
+        <v>9</v>
+      </c>
+      <c r="F21" s="13">
+        <v>5</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="13">
+        <v>11</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="13">
+        <v>12</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B25" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B26" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="13">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="13">
+        <v>3</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="13">
+        <v>4</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="13">
+        <v>5</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="13">
+        <v>6</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="13">
+        <v>7</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="13">
+        <v>8</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36" s="13">
+        <v>9</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="13">
+        <v>10</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B38" s="13">
+        <v>11</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="13">
+        <v>12</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" s="13">
+        <v>13</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="13">
+        <v>14</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="13">
+        <v>15</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="13">
+        <v>16</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="13">
+        <v>17</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B45" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B46" s="6"/>
+      <c r="C46" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B47" s="6"/>
+      <c r="C47" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C48" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B50" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" s="18" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="B51" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B52" s="20">
+        <v>0</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B53" s="20">
+        <v>1</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B54" s="20">
+        <v>2</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B55" s="20">
+        <v>3</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B56" s="20">
+        <v>4</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B57" s="20">
+        <v>5</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B58" s="20">
+        <v>6</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3793D7-4F19-4229-B40C-D8447E69E11D}">
+  <dimension ref="D11:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251089EB-3080-44F1-9288-034C951C30DF}">
   <dimension ref="B3:B5"/>
   <sheetViews>
@@ -1406,17 +3562,17 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +3581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79FF6CD-941E-4F53-BC5D-DDDD624E94C2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1438,7 +3594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B8B1D-9888-4348-ADEA-3556D4377169}">
   <dimension ref="A1"/>
   <sheetViews>
